--- a/CETAF_DEVELOPMENTS/elasticsearch/cetaf_website_elastic_search/MARS_ES_DATA_FLOW/parse_mars/mars_model_20201811_mapping.xlsx
+++ b/CETAF_DEVELOPMENTS/elasticsearch/cetaf_website_elastic_search/MARS_ES_DATA_FLOW/parse_mars/mars_model_20201811_mapping.xlsx
@@ -26,13 +26,12 @@
     <sheet name="17_cetaf_passport_interests_in" sheetId="17" r:id="rId17"/>
     <sheet name="18_cetaf_passport_finances" sheetId="18" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2512" uniqueCount="1038">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="1064">
   <si>
     <t>field</t>
   </si>
@@ -3004,9 +3003,6 @@
     <t>es_cluster</t>
   </si>
   <si>
-    <t>es_repeatale</t>
-  </si>
-  <si>
     <t>es_repeatable</t>
   </si>
   <si>
@@ -3146,6 +3142,87 @@
   </si>
   <si>
     <t>/1-cetaf-passport-administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DO not use HTML, only parsed version + sum </t>
+  </si>
+  <si>
+    <t>annual_report_s__url</t>
+  </si>
+  <si>
+    <t>https://www.naturalsciences.be/en/about-us/mission/annual-report</t>
+  </si>
+  <si>
+    <t>cetaf_dashboard_url</t>
+  </si>
+  <si>
+    <t>https://app.powerbi.com/view?r=eyJrIjoiM2QyNDlmNjEtOTk3Ni00NGYwLThiMDctZTA5MjY0Mjc0MjUwIiwidCI6IjczYTI5YzAxLTRlNzgtNDM3Zi1hMGQ0LWM4NTUzZTE5NjBjMSIsImMiOjh9</t>
+  </si>
+  <si>
+    <t>structure_chart_url</t>
+  </si>
+  <si>
+    <t>https://www.naturalsciences.be/en/about-us/organisation/organisation-chart</t>
+  </si>
+  <si>
+    <t>concatenation_cluster</t>
+  </si>
+  <si>
+    <t>staff_field</t>
+  </si>
+  <si>
+    <t>scientific staff associated</t>
+  </si>
+  <si>
+    <t>scientific staff collections non permanent</t>
+  </si>
+  <si>
+    <t>scientific staff collections permanent</t>
+  </si>
+  <si>
+    <t>scientific staff non permanent</t>
+  </si>
+  <si>
+    <t>scientific staff permanent</t>
+  </si>
+  <si>
+    <t>scientific staff post doc non permanent</t>
+  </si>
+  <si>
+    <t>staff administrative non permanent</t>
+  </si>
+  <si>
+    <t>staff administrative permanent</t>
+  </si>
+  <si>
+    <t>staff collection managers technicians non permanent</t>
+  </si>
+  <si>
+    <t>staff collection managers technicians permanent</t>
+  </si>
+  <si>
+    <t>staff exhibitions non permanent</t>
+  </si>
+  <si>
+    <t>staff exhibitions permanent</t>
+  </si>
+  <si>
+    <t>staff females non permanent</t>
+  </si>
+  <si>
+    <t>staff females permanent</t>
+  </si>
+  <si>
+    <t>staff males non permanent</t>
+  </si>
+  <si>
+    <t>staff males permanent</t>
+  </si>
+  <si>
+    <t>staff total</t>
+  </si>
+  <si>
+    <t>staff year of reference</t>
   </si>
 </sst>
 </file>
@@ -3513,18 +3590,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E25"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="80" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="105.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -3570,7 +3650,7 @@
         <v>7</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -3584,258 +3664,231 @@
         <v>9</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>1038</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
+      <c r="D4" s="2" t="s">
+        <v>1039</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>1040</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>1041</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F5" t="s">
-        <v>943</v>
-      </c>
-      <c r="G5" t="s">
-        <v>931</v>
-      </c>
-      <c r="J5" t="s">
-        <v>930</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
       <c r="E6" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F6" t="s">
-        <v>943</v>
-      </c>
-      <c r="G6" t="s">
-        <v>932</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F7" t="s">
         <v>943</v>
       </c>
       <c r="G7" t="s">
-        <v>926</v>
+        <v>931</v>
+      </c>
+      <c r="J7" t="s">
+        <v>930</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>18</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F8" t="s">
         <v>943</v>
       </c>
       <c r="G8" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F9" t="s">
         <v>943</v>
       </c>
       <c r="G9" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F10" t="s">
         <v>943</v>
       </c>
       <c r="G10" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J11" t="s">
-        <v>933</v>
+        <v>1035</v>
+      </c>
+      <c r="F11" t="s">
+        <v>943</v>
+      </c>
+      <c r="G11" t="s">
+        <v>928</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J12" t="s">
-        <v>934</v>
+        <v>1035</v>
+      </c>
+      <c r="F12" t="s">
+        <v>943</v>
+      </c>
+      <c r="G12" t="s">
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
+      </c>
+      <c r="J13" t="s">
+        <v>933</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F14" t="s">
-        <v>943</v>
-      </c>
-      <c r="G14" t="s">
-        <v>936</v>
-      </c>
-      <c r="H14" t="s">
-        <v>946</v>
-      </c>
-      <c r="I14" t="s">
-        <v>947</v>
+        <v>1035</v>
+      </c>
+      <c r="J14" t="s">
+        <v>934</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="D15" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F15" t="s">
-        <v>943</v>
-      </c>
-      <c r="G15" t="s">
-        <v>937</v>
-      </c>
-      <c r="H15" t="s">
-        <v>946</v>
-      </c>
-      <c r="I15" t="s">
-        <v>947</v>
-      </c>
-      <c r="J15" t="s">
-        <v>942</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F16" t="s">
         <v>943</v>
@@ -3852,16 +3905,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="D17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F17" t="s">
         <v>943</v>
@@ -3875,19 +3928,22 @@
       <c r="I17" t="s">
         <v>947</v>
       </c>
+      <c r="J17" t="s">
+        <v>942</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F18" t="s">
         <v>943</v>
@@ -3904,16 +3960,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="F19" t="s">
         <v>943</v>
@@ -3930,103 +3986,155 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
+      </c>
+      <c r="F20" t="s">
+        <v>943</v>
+      </c>
+      <c r="G20" t="s">
+        <v>936</v>
+      </c>
+      <c r="H20" t="s">
+        <v>946</v>
+      </c>
+      <c r="I20" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J21" t="s">
-        <v>938</v>
+        <v>1035</v>
+      </c>
+      <c r="F21" t="s">
+        <v>943</v>
+      </c>
+      <c r="G21" t="s">
+        <v>937</v>
+      </c>
+      <c r="H21" t="s">
+        <v>946</v>
+      </c>
+      <c r="I21" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="D22" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="J23" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="J24" t="s">
-        <v>940</v>
-      </c>
-      <c r="K24" t="s">
-        <v>939</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J25" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J26" t="s">
+        <v>940</v>
+      </c>
+      <c r="K26" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="E27" s="2" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F27" t="s">
         <v>943</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G27" t="s">
         <v>927</v>
       </c>
     </row>
@@ -4034,10 +4142,14 @@
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?@id"/>
-    <hyperlink ref="E3:E25" r:id="rId3" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?@id"/>
+    <hyperlink ref="E3:E27" r:id="rId3" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?@id"/>
+    <hyperlink ref="D4" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId5" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?annual_report_s__url"/>
+    <hyperlink ref="D5" r:id="rId6"/>
+    <hyperlink ref="E5" r:id="rId7" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/?cetaf_dashboard_url"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -7202,10 +7314,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:M77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="F46" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7215,11 +7327,14 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="109.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="165.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="53.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="66.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7245,16 +7360,22 @@
         <v>989</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>992</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -7265,10 +7386,10 @@
         <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -7279,10 +7400,10 @@
         <v>54</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -7293,7 +7414,7 @@
         <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F4" t="s">
         <v>943</v>
@@ -7308,7 +7429,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -7319,7 +7440,7 @@
         <v>58</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F5" t="s">
         <v>943</v>
@@ -7334,7 +7455,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -7345,7 +7466,7 @@
         <v>60</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F6" t="s">
         <v>943</v>
@@ -7360,7 +7481,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>61</v>
       </c>
@@ -7371,7 +7492,7 @@
         <v>62</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F7" t="s">
         <v>943</v>
@@ -7386,7 +7507,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -7397,7 +7518,7 @@
         <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F8" t="s">
         <v>943</v>
@@ -7412,7 +7533,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>65</v>
       </c>
@@ -7423,7 +7544,7 @@
         <v>66</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F9" t="s">
         <v>943</v>
@@ -7438,7 +7559,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -7449,10 +7570,10 @@
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -7463,7 +7584,7 @@
         <v>69</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F11" t="s">
         <v>943</v>
@@ -7481,7 +7602,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>70</v>
       </c>
@@ -7492,7 +7613,7 @@
         <v>14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F12" t="s">
         <v>943</v>
@@ -7507,7 +7628,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -7518,7 +7639,7 @@
         <v>73</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F13" t="s">
         <v>943</v>
@@ -7530,7 +7651,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>74</v>
       </c>
@@ -7541,7 +7662,7 @@
         <v>75</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F14" t="s">
         <v>943</v>
@@ -7556,7 +7677,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>76</v>
       </c>
@@ -7567,7 +7688,7 @@
         <v>77</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F15" t="s">
         <v>943</v>
@@ -7582,7 +7703,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -7593,7 +7714,7 @@
         <v>79</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -7607,7 +7728,7 @@
         <v>81</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F17" t="s">
         <v>943</v>
@@ -7630,7 +7751,7 @@
         <v>83</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F18" t="s">
         <v>943</v>
@@ -7653,7 +7774,7 @@
         <v>85</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F19" t="s">
         <v>943</v>
@@ -7673,7 +7794,7 @@
         <v>6</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F20" t="s">
         <v>943</v>
@@ -7696,7 +7817,7 @@
         <v>87</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F21" t="s">
         <v>943</v>
@@ -7725,7 +7846,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F22" t="s">
         <v>943</v>
@@ -7751,7 +7872,7 @@
         <v>90</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F23" t="s">
         <v>943</v>
@@ -7774,7 +7895,7 @@
         <v>92</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F24" t="s">
         <v>943</v>
@@ -7800,7 +7921,7 @@
         <v>94</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F25" t="s">
         <v>943</v>
@@ -7826,7 +7947,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -7840,7 +7961,7 @@
         <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F27" t="s">
         <v>943</v>
@@ -7863,7 +7984,7 @@
         <v>98</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F28" t="s">
         <v>943</v>
@@ -7886,7 +8007,7 @@
         <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -7900,7 +8021,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F30" t="s">
         <v>943</v>
@@ -7920,7 +8041,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F31" t="s">
         <v>943</v>
@@ -7943,7 +8064,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F32" t="s">
         <v>943</v>
@@ -7955,7 +8076,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>103</v>
       </c>
@@ -7966,7 +8087,7 @@
         <v>14</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F33" t="s">
         <v>943</v>
@@ -7978,7 +8099,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>23</v>
       </c>
@@ -7989,13 +8110,13 @@
         <v>104</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="J34" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -8006,7 +8127,7 @@
         <v>106</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F35" t="s">
         <v>943</v>
@@ -8018,7 +8139,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>107</v>
       </c>
@@ -8029,7 +8150,7 @@
         <v>108</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F36" t="s">
         <v>943</v>
@@ -8041,7 +8162,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>109</v>
       </c>
@@ -8052,10 +8173,10 @@
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>28</v>
       </c>
@@ -8066,10 +8187,10 @@
         <v>110</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>111</v>
       </c>
@@ -8080,7 +8201,7 @@
         <v>14</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F39" t="s">
         <v>943</v>
@@ -8098,7 +8219,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
@@ -8109,10 +8230,13 @@
         <v>14</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M40" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -8123,7 +8247,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F41" t="s">
         <v>943</v>
@@ -8141,7 +8265,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>114</v>
       </c>
@@ -8152,7 +8276,7 @@
         <v>115</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F42" t="s">
         <v>943</v>
@@ -8170,7 +8294,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>116</v>
       </c>
@@ -8181,7 +8305,7 @@
         <v>87</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F43" t="s">
         <v>943</v>
@@ -8196,7 +8320,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>117</v>
       </c>
@@ -8207,7 +8331,7 @@
         <v>14</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F44" t="s">
         <v>943</v>
@@ -8222,7 +8346,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>118</v>
       </c>
@@ -8233,7 +8357,7 @@
         <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F45" t="s">
         <v>943</v>
@@ -8248,7 +8372,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>119</v>
       </c>
@@ -8259,7 +8383,7 @@
         <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F46" t="s">
         <v>943</v>
@@ -8277,7 +8401,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>120</v>
       </c>
@@ -8288,7 +8412,7 @@
         <v>94</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F47" t="s">
         <v>943</v>
@@ -8306,7 +8430,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>121</v>
       </c>
@@ -8317,13 +8441,13 @@
         <v>14</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="H48" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>122</v>
       </c>
@@ -8334,7 +8458,7 @@
         <v>14</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F49" t="s">
         <v>943</v>
@@ -8349,7 +8473,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>123</v>
       </c>
@@ -8360,7 +8484,7 @@
         <v>124</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F50" t="s">
         <v>943</v>
@@ -8375,7 +8499,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>125</v>
       </c>
@@ -8386,7 +8510,7 @@
         <v>98</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F51" t="s">
         <v>943</v>
@@ -8401,7 +8525,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -8412,10 +8536,10 @@
         <v>44</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>126</v>
       </c>
@@ -8426,7 +8550,7 @@
         <v>128</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F53" t="s">
         <v>943</v>
@@ -8444,10 +8568,13 @@
         <v>973</v>
       </c>
       <c r="K53" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1046</v>
+      </c>
+      <c r="L53" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -8458,7 +8585,7 @@
         <v>130</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F54" t="s">
         <v>943</v>
@@ -8476,10 +8603,13 @@
         <v>973</v>
       </c>
       <c r="K54" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1047</v>
+      </c>
+      <c r="L54" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>131</v>
       </c>
@@ -8490,7 +8620,7 @@
         <v>132</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F55" t="s">
         <v>943</v>
@@ -8508,10 +8638,13 @@
         <v>973</v>
       </c>
       <c r="K55" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1048</v>
+      </c>
+      <c r="L55" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>133</v>
       </c>
@@ -8522,7 +8655,7 @@
         <v>134</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F56" t="s">
         <v>943</v>
@@ -8540,10 +8673,13 @@
         <v>973</v>
       </c>
       <c r="K56" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1049</v>
+      </c>
+      <c r="L56" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>135</v>
       </c>
@@ -8554,7 +8690,7 @@
         <v>136</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F57" t="s">
         <v>943</v>
@@ -8572,10 +8708,13 @@
         <v>973</v>
       </c>
       <c r="K57" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1050</v>
+      </c>
+      <c r="L57" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>137</v>
       </c>
@@ -8586,7 +8725,7 @@
         <v>138</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F58" t="s">
         <v>943</v>
@@ -8604,10 +8743,13 @@
         <v>973</v>
       </c>
       <c r="K58" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1051</v>
+      </c>
+      <c r="L58" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>139</v>
       </c>
@@ -8618,7 +8760,7 @@
         <v>14</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F59" t="s">
         <v>943</v>
@@ -8636,10 +8778,13 @@
         <v>973</v>
       </c>
       <c r="K59" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+      <c r="L59" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>140</v>
       </c>
@@ -8650,7 +8795,7 @@
         <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F60" t="s">
         <v>943</v>
@@ -8668,10 +8813,13 @@
         <v>973</v>
       </c>
       <c r="K60" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1053</v>
+      </c>
+      <c r="L60" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>141</v>
       </c>
@@ -8682,7 +8830,7 @@
         <v>132</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F61" t="s">
         <v>943</v>
@@ -8700,10 +8848,13 @@
         <v>973</v>
       </c>
       <c r="K61" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1054</v>
+      </c>
+      <c r="L61" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>142</v>
       </c>
@@ -8714,7 +8865,7 @@
         <v>143</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F62" t="s">
         <v>943</v>
@@ -8732,10 +8883,13 @@
         <v>973</v>
       </c>
       <c r="K62" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1055</v>
+      </c>
+      <c r="L62" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>144</v>
       </c>
@@ -8746,7 +8900,7 @@
         <v>145</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F63" t="s">
         <v>943</v>
@@ -8764,10 +8918,13 @@
         <v>973</v>
       </c>
       <c r="K63" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1056</v>
+      </c>
+      <c r="L63" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>146</v>
       </c>
@@ -8778,7 +8935,7 @@
         <v>147</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F64" t="s">
         <v>943</v>
@@ -8796,10 +8953,13 @@
         <v>973</v>
       </c>
       <c r="K64" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1057</v>
+      </c>
+      <c r="L64" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>148</v>
       </c>
@@ -8810,7 +8970,7 @@
         <v>14</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F65" t="s">
         <v>943</v>
@@ -8828,10 +8988,13 @@
         <v>973</v>
       </c>
       <c r="K65" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1058</v>
+      </c>
+      <c r="L65" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>149</v>
       </c>
@@ -8842,7 +9005,7 @@
         <v>14</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F66" t="s">
         <v>943</v>
@@ -8860,10 +9023,13 @@
         <v>973</v>
       </c>
       <c r="K66" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1059</v>
+      </c>
+      <c r="L66" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>150</v>
       </c>
@@ -8874,7 +9040,7 @@
         <v>14</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F67" t="s">
         <v>943</v>
@@ -8892,10 +9058,13 @@
         <v>973</v>
       </c>
       <c r="K67" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1060</v>
+      </c>
+      <c r="L67" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>151</v>
       </c>
@@ -8906,7 +9075,7 @@
         <v>14</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F68" t="s">
         <v>943</v>
@@ -8924,10 +9093,13 @@
         <v>973</v>
       </c>
       <c r="K68" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1061</v>
+      </c>
+      <c r="L68" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>152</v>
       </c>
@@ -8938,28 +9110,10 @@
         <v>14</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F69" t="s">
-        <v>943</v>
-      </c>
-      <c r="G69" t="s">
-        <v>972</v>
-      </c>
-      <c r="H69" t="s">
-        <v>964</v>
-      </c>
-      <c r="I69" t="s">
-        <v>955</v>
-      </c>
-      <c r="J69" t="s">
-        <v>973</v>
-      </c>
-      <c r="K69" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -8970,7 +9124,7 @@
         <v>154</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F70" t="s">
         <v>943</v>
@@ -8988,10 +9142,13 @@
         <v>973</v>
       </c>
       <c r="K70" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+      <c r="L70" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>155</v>
       </c>
@@ -9002,7 +9159,7 @@
         <v>156</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F71" t="s">
         <v>943</v>
@@ -9020,10 +9177,13 @@
         <v>973</v>
       </c>
       <c r="K71" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>1063</v>
+      </c>
+      <c r="L71" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>157</v>
       </c>
@@ -9034,7 +9194,7 @@
         <v>14</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F72" t="s">
         <v>943</v>
@@ -9046,7 +9206,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>158</v>
       </c>
@@ -9057,7 +9217,7 @@
         <v>14</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F73" t="s">
         <v>943</v>
@@ -9069,71 +9229,85 @@
         <v>964</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>48</v>
       </c>
-      <c r="B74" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" t="s">
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
         <v>159</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="F74" t="s">
-        <v>943</v>
-      </c>
-      <c r="G74" t="s">
-        <v>986</v>
-      </c>
-      <c r="H74" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>160</v>
-      </c>
-      <c r="B75" t="s">
-        <v>46</v>
-      </c>
-      <c r="D75" t="s">
-        <v>161</v>
-      </c>
       <c r="E75" s="2" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="F75" t="s">
         <v>943</v>
       </c>
       <c r="G75" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="H75" t="s">
         <v>964</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
+        <v>46</v>
+      </c>
+      <c r="D76" t="s">
+        <v>161</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F76" t="s">
+        <v>943</v>
+      </c>
+      <c r="G76" t="s">
+        <v>969</v>
+      </c>
+      <c r="H76" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>49</v>
       </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="B77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
         <v>162</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>1037</v>
+      <c r="E77" s="2" t="s">
+        <v>1036</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1"/>
     <hyperlink ref="E2" r:id="rId2" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/1-cetaf-passport-administration?@id"/>
-    <hyperlink ref="E3:E76" r:id="rId3" display="http://collections.naturalsciences.be/cpb/nh-collections/countries/belgium/be-rbins/1-cetaf-passport-administration?@id"/>
+    <hyperlink ref="D74" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -9182,7 +9356,7 @@
         <v>163</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -9196,7 +9370,7 @@
         <v>164</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -9210,7 +9384,7 @@
         <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -9224,7 +9398,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -9238,7 +9412,7 @@
         <v>168</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -9252,7 +9426,7 @@
         <v>170</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -9266,7 +9440,7 @@
         <v>14</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -9280,7 +9454,7 @@
         <v>173</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -9294,7 +9468,7 @@
         <v>175</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -9308,7 +9482,7 @@
         <v>177</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -9322,7 +9496,7 @@
         <v>179</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -9336,7 +9510,7 @@
         <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -9350,7 +9524,7 @@
         <v>85</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -9364,7 +9538,7 @@
         <v>182</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -9375,7 +9549,7 @@
         <v>6</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9389,7 +9563,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9403,7 +9577,7 @@
         <v>69</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9417,7 +9591,7 @@
         <v>14</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9431,7 +9605,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9445,7 +9619,7 @@
         <v>187</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -9459,7 +9633,7 @@
         <v>14</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9473,7 +9647,7 @@
         <v>14</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -9487,7 +9661,7 @@
         <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -9501,7 +9675,7 @@
         <v>14</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -9515,7 +9689,7 @@
         <v>193</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -9529,7 +9703,7 @@
         <v>194</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -9543,7 +9717,7 @@
         <v>14</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -9557,7 +9731,7 @@
         <v>197</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -9571,7 +9745,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -9585,7 +9759,7 @@
         <v>14</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -9599,7 +9773,7 @@
         <v>14</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -9613,7 +9787,7 @@
         <v>202</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -9627,7 +9801,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -9641,7 +9815,7 @@
         <v>14</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -9655,7 +9829,7 @@
         <v>44</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -9669,7 +9843,7 @@
         <v>14</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -9683,7 +9857,7 @@
         <v>206</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -9697,7 +9871,7 @@
         <v>208</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -9711,7 +9885,7 @@
         <v>209</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -9725,7 +9899,7 @@
         <v>14</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -9739,7 +9913,7 @@
         <v>14</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -9753,7 +9927,7 @@
         <v>213</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
